--- a/CKPManagement/src/main/webapp/file/export/bills_data_export.xlsx
+++ b/CKPManagement/src/main/webapp/file/export/bills_data_export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -117,16 +117,25 @@
     <t>${data_JxLsC_.strToDate}</t>
   </si>
   <si>
+    <t>Trần Xuân Việt</t>
+  </si>
+  <si>
+    <t>21/09/2017</t>
+  </si>
+  <si>
     <t>Nguyễn Đức Đạo</t>
   </si>
   <si>
     <t>Hồ Tùng Mậu</t>
   </si>
   <si>
-    <t>21/09/2017</t>
-  </si>
-  <si>
-    <t>23:09:30</t>
+    <t>25/09/2017</t>
+  </si>
+  <si>
+    <t>26/09/2017</t>
+  </si>
+  <si>
+    <t>27/09/2017</t>
   </si>
 </sst>
 </file>
@@ -701,26 +710,64 @@
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="11" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="15.0" customHeight="true">
+      <c r="A10" s="12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" s="12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
